--- a/tests/fixtures/test_main.xlsx
+++ b/tests/fixtures/test_main.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\karrlab\wc_sim\tests\fixtures\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="!!_Table of contents" sheetId="1" r:id="rId1"/>
@@ -50,86 +55,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'!!Rate laws'!$A$2:$L$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!!Reactions'!$A$3:$N$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!!References'!$A$2:$R$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'!!Species'!$A$2:$J$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!!Species types'!$A$3:$N$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'!!Species'!$A$2:$J$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'!!Stop conditions'!$A$2:$I$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!!Submodels'!$A$2:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="327">
-  <si>
-    <t>'!!Model'!A1</t>
-  </si>
-  <si>
-    <t>'!!Taxon'!A1</t>
-  </si>
-  <si>
-    <t>'!!Environment'!A1</t>
-  </si>
-  <si>
-    <t>'!!Submodels'!A1</t>
-  </si>
-  <si>
-    <t>'!!Compartments'!A1</t>
-  </si>
-  <si>
-    <t>'!!Species types'!A1</t>
-  </si>
-  <si>
-    <t>'!!Species'!A1</t>
-  </si>
-  <si>
-    <t>'!!Init species concentrations'!A1</t>
-  </si>
-  <si>
-    <t>'!!Observables'!A1</t>
-  </si>
-  <si>
-    <t>'!!Functions'!A1</t>
-  </si>
-  <si>
-    <t>'!!Reactions'!A1</t>
-  </si>
-  <si>
-    <t>'!!Rate laws'!A1</t>
-  </si>
-  <si>
-    <t>'!!dFBA objectives'!A1</t>
-  </si>
-  <si>
-    <t>'!!dFBA objective reactions'!A1</t>
-  </si>
-  <si>
-    <t>'!!dFBA objective species'!A1</t>
-  </si>
-  <si>
-    <t>'!!Parameters'!A1</t>
-  </si>
-  <si>
-    <t>'!!Stop conditions'!A1</t>
-  </si>
-  <si>
-    <t>'!!Observations'!A1</t>
-  </si>
-  <si>
-    <t>'!!Observation sets'!A1</t>
-  </si>
-  <si>
-    <t>'!!Conclusions'!A1</t>
-  </si>
-  <si>
-    <t>'!!References'!A1</t>
-  </si>
-  <si>
-    <t>'!!Authors'!A1</t>
-  </si>
-  <si>
-    <t>'!!Changes'!A1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="305">
   <si>
     <t>!!!ObjTables schema='wc_lang' objTablesVersion='1.0.13' date='2020-09-02 17:18:01'</t>
   </si>
@@ -1041,13 +977,16 @@
   </si>
   <si>
     <t>!Intention type</t>
+  </si>
+  <si>
+    <t>mole / gDCW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1057,13 +996,13 @@
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1112,7 +1051,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1130,12 +1069,23 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1182,7 +1132,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1214,9 +1164,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1248,6 +1199,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1423,246 +1375,246 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.01" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="15.01" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="15.01" customHeight="1">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.01" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.01" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.01" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.01" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.01" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.01" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.01" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.01" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.01" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.01" customHeight="1">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.01" customHeight="1">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.01" customHeight="1">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.01" customHeight="1">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.01" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.01" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.01" customHeight="1">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.01" customHeight="1">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.01" customHeight="1">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.01" customHeight="1">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.01" customHeight="1">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.01" customHeight="1">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.01" customHeight="1">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.01" customHeight="1">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3">
@@ -1702,7 +1654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1710,15 +1662,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.01" customHeight="1">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1729,54 +1681,54 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="15.01" customHeight="1">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:I2"/>
   <dataValidations count="9">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10;Value mu ..." sqref="A2:A3">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_Value mu ..." sqref="A2:A3">
       <formula1>1</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B2:B3">
       <formula1>255</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a linear expression of Observables and Species." promptTitle="Expression" prompt="Enter a linear expression of Observables and Species." sqref="C2:C3"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot; or blank." sqref="D2:D3">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;molecule&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;molecule&quot; or blank." sqref="D2:D3">
       <formula1>"molecule"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="E2:E3"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="F2:F3"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="E2:E3"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="F2:F3"/>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="G2:G3"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="H2:H3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="H2:H3">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="I2:I3"/>
@@ -1786,7 +1738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1794,15 +1746,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.01" customHeight="1">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1813,45 +1765,45 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="15.01" customHeight="1">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.01" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1863,19 +1815,19 @@
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:I3"/>
   <dataValidations count="9">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10;Value mu ..." sqref="A3">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_Value mu ..." sqref="A3">
       <formula1>1</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B3">
       <formula1>255</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="C3"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." sqref="D3"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="E3"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="F3"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Enter a unit or blank." sqref="D3"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="E3"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="F3"/>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="G3"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="H3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="H3">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="I3"/>
@@ -1885,7 +1837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1893,15 +1845,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.01" customHeight="1">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1917,7 +1869,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="15.01" customHeight="1">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1925,13 +1877,13 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>194</v>
+        <v>171</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1939,75 +1891,75 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" ht="15.01" customHeight="1">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.01" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>1.660539067173847e-24</v>
+        <v>1.660539067173847E-24</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -2015,31 +1967,31 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="15.01" customHeight="1">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G5" s="3">
-        <v>-1.660539067173847e-21</v>
+        <v>-1.660539067173847E-21</v>
       </c>
       <c r="H5" s="3">
-        <v>1.660539067173847e-21</v>
+        <v>1.660539067173847E-21</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -2047,31 +1999,31 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" ht="15.01" customHeight="1">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="E6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G6" s="3">
-        <v>-1.660539067173847e-21</v>
+        <v>-1.660539067173847E-21</v>
       </c>
       <c r="H6" s="3">
-        <v>1.660539067173847e-21</v>
+        <v>1.660539067173847E-21</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -2079,31 +2031,31 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="15.01" customHeight="1">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G7" s="3">
-        <v>-1.660539067173847e-21</v>
+        <v>-1.660539067173847E-21</v>
       </c>
       <c r="H7" s="3">
-        <v>1.660539067173847e-21</v>
+        <v>1.660539067173847E-21</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -2111,31 +2063,31 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="15.01" customHeight="1">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="E8" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>1.660539067173847e-21</v>
+        <v>1.660539067173847E-21</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -2143,31 +2095,31 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" ht="15.01" customHeight="1">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="E9" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>1.660539067173847e-21</v>
+        <v>1.660539067173847E-21</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -2175,31 +2127,31 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" ht="15.01" customHeight="1">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="E10" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>3.321078134347694e-25</v>
+        <v>3.3210781343476941E-25</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -2207,31 +2159,31 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" ht="15.01" customHeight="1">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="E11" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
       </c>
       <c r="H11" s="3">
-        <v>1.660539067173847e-21</v>
+        <v>1.660539067173847E-21</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -2239,31 +2191,31 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" ht="15.01" customHeight="1">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="E12" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>1.660539067173847e-21</v>
+        <v>1.660539067173847E-21</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -2271,31 +2223,31 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" ht="15.01" customHeight="1">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="E13" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
       </c>
       <c r="H13" s="3">
-        <v>4.98161720152154e-25</v>
+        <v>4.9816172015215398E-25</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -2303,31 +2255,31 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" ht="15.01" customHeight="1">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>1.660539067173847e-21</v>
+        <v>1.660539067173847E-21</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -2335,31 +2287,31 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="15.01" customHeight="1">
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E15" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>1.660539067173847e-21</v>
+        <v>1.660539067173847E-21</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -2367,31 +2319,31 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" ht="15.01" customHeight="1">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="E16" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
       </c>
       <c r="H16" s="3">
-        <v>1.660539067173847e-21</v>
+        <v>1.660539067173847E-21</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -2399,31 +2351,31 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" ht="15.01" customHeight="1">
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="E17" s="3" t="b">
         <v>1</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G17" s="3">
-        <v>-1.660539067173847e-21</v>
+        <v>-1.660539067173847E-21</v>
       </c>
       <c r="H17" s="3">
-        <v>1.660539067173847e-21</v>
+        <v>1.660539067173847E-21</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -2431,31 +2383,31 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" ht="15.01" customHeight="1">
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="E18" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>1.660539067173847e-21</v>
+        <v>1.660539067173847E-21</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -2463,31 +2415,31 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" ht="15.01" customHeight="1">
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="E19" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G19" s="3">
         <v>0</v>
       </c>
       <c r="H19" s="3">
-        <v>1.660539067173847e-21</v>
+        <v>1.660539067173847E-21</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -2495,31 +2447,31 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="15.01" customHeight="1">
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="E20" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>1.660539067173847e-21</v>
+        <v>1.660539067173847E-21</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -2527,31 +2479,31 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" ht="15.01" customHeight="1">
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="E21" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>1.660539067173847e-21</v>
+        <v>1.660539067173847E-21</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -2559,31 +2511,31 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" ht="15.01" customHeight="1">
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="E22" s="3" t="b">
         <v>1</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G22" s="3">
-        <v>-1.660539067173847e-21</v>
+        <v>-1.660539067173847E-21</v>
       </c>
       <c r="H22" s="3">
-        <v>1.660539067173847e-21</v>
+        <v>1.660539067173847E-21</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -2591,31 +2543,31 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" ht="15.01" customHeight="1">
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>1</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G23" s="3">
-        <v>-1.660539067173847e-21</v>
+        <v>-1.660539067173847E-21</v>
       </c>
       <c r="H23" s="3">
-        <v>1.660539067173847e-21</v>
+        <v>1.660539067173847E-21</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -2623,31 +2575,31 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" ht="15.01" customHeight="1">
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="E24" s="3" t="b">
         <v>1</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G24" s="3">
-        <v>-1.660539067173847e-21</v>
+        <v>-1.660539067173847E-21</v>
       </c>
       <c r="H24" s="3">
-        <v>1.660539067173847e-21</v>
+        <v>1.660539067173847E-21</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -2655,31 +2607,31 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" ht="15.01" customHeight="1">
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="E25" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
       </c>
       <c r="H25" s="3">
-        <v>1.660539067173847e-21</v>
+        <v>1.660539067173847E-21</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -2687,31 +2639,31 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="15.01" customHeight="1">
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="E26" s="3" t="b">
         <v>1</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G26" s="3">
-        <v>-1.660539067173847e-21</v>
+        <v>-1.660539067173847E-21</v>
       </c>
       <c r="H26" s="3">
-        <v>1.660539067173847e-21</v>
+        <v>1.660539067173847E-21</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -2719,31 +2671,31 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14" ht="15.01" customHeight="1">
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="E27" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>1.660539067173847e-21</v>
+        <v>1.660539067173847E-21</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -2751,31 +2703,31 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" ht="15.01" customHeight="1">
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="E28" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G28" s="3">
         <v>0</v>
       </c>
       <c r="H28" s="3">
-        <v>1.660539067173847e-21</v>
+        <v>1.660539067173847E-21</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -2783,31 +2735,31 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14" ht="15.01" customHeight="1">
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="E29" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>1.660539067173847e-21</v>
+        <v>1.660539067173847E-21</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -2821,48 +2773,57 @@
   <mergeCells count="1">
     <mergeCell ref="G2:I2"/>
   </mergeCells>
-  <dataValidations count="14">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10;Value mu ..." sqref="A4:A29">
+  <dataValidations count="13">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_Value mu ..." sqref="A4:A29">
       <formula1>1</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B4:B29">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B4:B29">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Submodel" error="Value must be a value from &quot;!!Submodels:A&quot; or blank." promptTitle="Submodel" prompt="Select a value from &quot;!!Submodels:A&quot; or blank." sqref="C4:C29">
-      <formula1>'!!Submodels'!$A$3:$A$1048576</formula1>
-    </dataValidation>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Participants" error="Value must be a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" promptTitle="Participants" prompt="Enter a reaction string using species from &quot;Species:A&quot;.&#10;&#10;Examples:&#10;* [c]: atp + h2o ==&gt; adp + pi + h&#10;* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]&#10;* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" sqref="D4:D29"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reversible" error="Enter a Boolean value&#10;&#10;Value must be &quot;True&quot; or &quot;False&quot;." promptTitle="Reversible" prompt="Enter a Boolean value&#10;&#10;Select &quot;True&quot; or &quot;False&quot;." sqref="E4:E29">
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Participants" error="Value must be a reaction string using species from &quot;Species:A&quot;._x000a__x000a_Examples:_x000a_* [c]: atp + h2o ==&gt; adp + pi + h_x000a_* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]_x000a_* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" promptTitle="Participants" prompt="Enter a reaction string using species from &quot;Species:A&quot;._x000a__x000a_Examples:_x000a_* [c]: atp + h2o ==&gt; adp + pi + h_x000a_* glc[e] + atp[c] + h2o[c] ==&gt; glc[e] + adp[c] + pi[c] + h[c]_x000a_* (3) Na[c] + (2) K[e] ==&gt; (3) Na[e] + (2) K[c]" sqref="D4:D29"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reversible" error="Enter a Boolean value_x000a__x000a_Value must be &quot;True&quot; or &quot;False&quot;." promptTitle="Reversible" prompt="Enter a Boolean value_x000a__x000a_Select &quot;True&quot; or &quot;False&quot;." sqref="E4:E29">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Rate units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Rate units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." sqref="F4:F29">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Rate units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Rate units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;1 / second&quot; or blank." sqref="F4:F29">
       <formula1>"1 / second"</formula1>
     </dataValidation>
     <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Minimum" error="Value must be a float or blank." promptTitle="Minimum" prompt="Enter a float or blank." sqref="G4:G29">
-      <formula1>-1e+100</formula1>
-      <formula2>1e+100</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Maximum" error="Value must be a float or blank." promptTitle="Maximum" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="H4:H29">
-      <formula1>-1e-100</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molar / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molar / second&quot; or blank." sqref="I4:I29">
+      <formula1>-1E+100</formula1>
+      <formula2>1E+100</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Maximum" error="Value must be a float or blank." promptTitle="Maximum" prompt="Enter a float or blank._x000a__x000a_Value must be greater than or equal to 0.0." sqref="H4:H29">
+      <formula1>-1E-100</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;molar / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;molar / second&quot; or blank." sqref="I4:I29">
       <formula1>"molar / second"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="J4:J29"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="K4:K29"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="J4:J29"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="K4:K29"/>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="L4:L29"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="M4:M29">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="M4:M29">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="N4:N29"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Submodel" error="Value must be a value from &quot;!!Submodels:A&quot; or blank." promptTitle="Submodel" prompt="Select a value from &quot;!!Submodels:A&quot; or blank.">
+          <x14:formula1>
+            <xm:f>'!!Submodels'!$A$3:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4:C29</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2870,15 +2831,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.01" customHeight="1">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2892,56 +2853,53 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="15.01" customHeight="1">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:L2"/>
-  <dataValidations count="12">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A2:A3">
+  <dataValidations count="11">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." promptTitle="Id" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." sqref="A2:A3">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B2:B3">
       <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reaction" error="Value must be a value from &quot;!!Reactions:A&quot; or blank." promptTitle="Reaction" prompt="Select a value from &quot;!!Reactions:A&quot; or blank." sqref="C2:C3">
-      <formula1>'!!Reactions'!$A$4:$A$1048576</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Direction" error="Value must be one of &quot;backward&quot;, &quot;forward&quot;." promptTitle="Direction" prompt="Select one of &quot;backward&quot;, &quot;forward&quot;." sqref="D2:D3">
       <formula1>"backward,forward"</formula1>
@@ -2950,23 +2908,35 @@
       <formula1>"rate_law,Michaelis_Menten_rate_law,hill_rate_law,mass_action_rate_law,modular_rate_law"</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="F2:F3"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." sqref="G2:G3">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;1 / second&quot; or blank." sqref="G2:G3">
       <formula1>"1 / second"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="H2:H3"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="I2:I3"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="H2:H3"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="I2:I3"/>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="J2:J3"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="K2:K3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="K2:K3">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="L2:L3"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reaction" error="Value must be a value from &quot;!!Reactions:A&quot; or blank." promptTitle="Reaction" prompt="Select a value from &quot;!!Reactions:A&quot; or blank.">
+          <x14:formula1>
+            <xm:f>'!!Reactions'!$A$4:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2974,15 +2944,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.01" customHeight="1">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2996,63 +2966,63 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="15.01" customHeight="1">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.01" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -3063,40 +3033,49 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:L3"/>
-  <dataValidations count="12">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A3">
+  <dataValidations count="11">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." promptTitle="Id" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." sqref="A3">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B3">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Submodel" error="Value must be a value from &quot;!!Submodels:A&quot;." promptTitle="Submodel" prompt="Select a value from &quot;!!Submodels:A&quot;." sqref="C3">
-      <formula1>'!!Submodels'!$A$3:$A$1048576</formula1>
-    </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of dFBA objective reactions and Reactions." promptTitle="Expression" prompt="Enter a expression of dFBA objective reactions and Reactions." sqref="D3"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." sqref="E3">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;dimensionless&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;dimensionless&quot; or blank." sqref="E3">
       <formula1>"dimensionless"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reaction rate units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Reaction rate units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." sqref="F3">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reaction rate units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Reaction rate units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;1 / second&quot; or blank." sqref="F3">
       <formula1>"1 / second"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Coefficient units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;second&quot; or blank." promptTitle="Coefficient units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;second&quot; or blank." sqref="G3">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Coefficient units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;second&quot; or blank." promptTitle="Coefficient units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;second&quot; or blank." sqref="G3">
       <formula1>"second"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="H3"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="I3"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="H3"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="I3"/>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="J3"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="K3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="K3">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="L3"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Submodel" error="Value must be a value from &quot;!!Submodels:A&quot;." promptTitle="Submodel" prompt="Select a value from &quot;!!Submodels:A&quot;.">
+          <x14:formula1>
+            <xm:f>'!!Submodels'!$A$3:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3104,15 +3083,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.01" customHeight="1">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3124,51 +3103,51 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="15.01" customHeight="1">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.01" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -3176,19 +3155,19 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.01" customHeight="1">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3196,19 +3175,19 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15.01" customHeight="1">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -3216,19 +3195,19 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="15.01" customHeight="1">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -3239,53 +3218,62 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:J6"/>
-  <dataValidations count="10">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10;Value mu ..." sqref="A3:A6">
+  <dataValidations count="9">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_Value mu ..." sqref="A3:A6">
       <formula1>1</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B6">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B3:B6">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Submodel" error="Value must be a value from &quot;!!Submodels:A&quot; or blank." promptTitle="Submodel" prompt="Select a value from &quot;!!Submodels:A&quot; or blank." sqref="C3:C6">
-      <formula1>'!!Submodels'!$A$3:$A$1048576</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;1 / second&quot; or blank." sqref="D3:D6">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;1 / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;1 / second&quot; or blank." sqref="D3:D6">
       <formula1>"1 / second"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Cell size units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;liter&quot;, &quot;gDCW&quot; or blank." promptTitle="Cell size units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;liter&quot;, &quot;gDCW&quot; or blank." sqref="E3:E6">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Cell size units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;liter&quot;, &quot;gDCW&quot; or blank." promptTitle="Cell size units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;liter&quot;, &quot;gDCW&quot; or blank." sqref="E3:E6">
       <formula1>"liter,gDCW"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="F3:F6"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="G3:G6"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="F3:F6"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="G3:G6"/>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="H3:H6"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="I3:I6">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="I3:I6">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="J3:J6"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Submodel" error="Value must be a value from &quot;!!Submodels:A&quot; or blank." promptTitle="Submodel" prompt="Select a value from &quot;!!Submodels:A&quot; or blank.">
+          <x14:formula1>
+            <xm:f>'!!Submodels'!$A$3:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.01" customHeight="1">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3298,57 +3286,57 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="15.01" customHeight="1">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.01" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>204</v>
+        <v>304</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -3356,22 +3344,22 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="15.01" customHeight="1">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E4" s="3">
         <v>-1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>204</v>
+        <v>304</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -3379,22 +3367,22 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="15.01" customHeight="1">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>204</v>
+        <v>304</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -3402,22 +3390,22 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="15.01" customHeight="1">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="E6" s="3">
         <v>-1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>204</v>
+        <v>304</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -3428,40 +3416,52 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:K6"/>
-  <dataValidations count="11">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A3:A6">
+  <dataValidations count="9">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." promptTitle="Id" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." sqref="A3:A6">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B6">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B3:B6">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="dFBA objective reaction" error="Value must be a value from &quot;!!dFBA objective reactions:A&quot;." promptTitle="dFBA objective reaction" prompt="Select a value from &quot;!!dFBA objective reactions:A&quot;." sqref="C3:C6">
-      <formula1>'!!dFBA objective reactions'!$A$3:$A$1048576</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Species" error="Value must be a value from &quot;!!Species:A&quot;." promptTitle="Species" prompt="Select a value from &quot;!!Species:A&quot;." sqref="D3:D6">
-      <formula1>'!!Species'!$A$3:$A$1048576</formula1>
-    </dataValidation>
     <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a float or blank." promptTitle="Value" prompt="Enter a float or blank." sqref="E3:E6">
-      <formula1>-1e+100</formula1>
-      <formula2>1e+100</formula2>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molar / second&quot;, &quot;mole / gDCW / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molar / second&quot;, &quot;mole / gDCW / second&quot; or blank." sqref="F3:F6">
+      <formula1>-1E+100</formula1>
+      <formula2>1E+100</formula2>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;molar / second&quot;, &quot;mole / gDCW / second&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;molar / second&quot;, &quot;mole / gDCW / second&quot; or blank." sqref="F3:F6">
       <formula1>"molar / second,mole / gDCW / second"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="G3:G6"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="H3:H6"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="G3:G6"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="H3:H6"/>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="I3:I6"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="J3:J6">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="J3:J6">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="K3:K6"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="dFBA objective reaction" error="Value must be a value from &quot;!!dFBA objective reactions:A&quot;." promptTitle="dFBA objective reaction" prompt="Select a value from &quot;!!dFBA objective reactions:A&quot;.">
+          <x14:formula1>
+            <xm:f>'!!dFBA objective reactions'!$A$3:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Species" error="Value must be a value from &quot;!!Species:A&quot;." promptTitle="Species" prompt="Select a value from &quot;!!Species:A&quot;.">
+          <x14:formula1>
+            <xm:f>'!!Species'!$A$3:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3469,15 +3469,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.01" customHeight="1">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3490,44 +3490,44 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="15.01" customHeight="1">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.01" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -3548,28 +3548,28 @@
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:K3"/>
   <dataValidations count="11">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10;Value mu ..." sqref="A3">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_Value mu ..." sqref="A3">
       <formula1>1</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B3">
       <formula1>255</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;parameter&quot;, &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;parameter&quot;, &quot;kinetic_constant&quot;, &quot;K_i&quot;, &quot;K_m&quot;, &quot;k_cat&quot;, &quot;v_max&quot; or blank." sqref="C3">
       <formula1>"parameter,kinetic_constant,K_i,K_m,k_cat,v_max"</formula1>
     </dataValidation>
     <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a float or blank." promptTitle="Value" prompt="Enter a float or blank." sqref="D3">
-      <formula1>-1e+100</formula1>
-      <formula2>1e+100</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a float or blank." promptTitle="Standard error" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="E3">
-      <formula1>-1e-100</formula1>
-    </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." sqref="F3"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="G3"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="H3"/>
+      <formula1>-1E+100</formula1>
+      <formula2>1E+100</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a float or blank." promptTitle="Standard error" prompt="Enter a float or blank._x000a__x000a_Value must be greater than or equal to 0.0." sqref="E3">
+      <formula1>-1E-100</formula1>
+    </dataValidation>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Enter a unit or blank." sqref="F3"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="G3"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="H3"/>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="I3"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="J3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="J3">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="K3"/>
@@ -3579,7 +3579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3587,15 +3587,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.01" customHeight="1">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3606,54 +3606,54 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="15.01" customHeight="1">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:I2"/>
   <dataValidations count="9">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10;Value mu ..." sqref="A2:A3">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_Value mu ..." sqref="A2:A3">
       <formula1>1</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B2:B3">
       <formula1>255</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Expression" error="Value must be a expression of Compartments, Functions, Observables, Parameters and Species." promptTitle="Expression" prompt="Enter a expression of Compartments, Functions, Observables, Parameters and Species." sqref="C2:C3"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." sqref="D2:D3">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;dimensionless&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;dimensionless&quot; or blank." sqref="D2:D3">
       <formula1>"dimensionless"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="E2:E3"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="F2:F3"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="E2:E3"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="F2:F3"/>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="G2:G3"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="H2:H3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="H2:H3">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="I2:I3"/>
@@ -3663,7 +3663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3671,15 +3671,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="23" width="15.7109375" customWidth="1"/>
-    <col min="24" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.01" customHeight="1">
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3704,7 +3704,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="15.01" customHeight="1">
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3712,116 +3712,116 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>280</v>
+        <v>257</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>257</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>281</v>
+        <v>258</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>282</v>
+        <v>259</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>283</v>
+        <v>260</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>260</v>
       </c>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
     </row>
-    <row r="3" spans="1:23" ht="15.01" customHeight="1">
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3834,69 +3834,69 @@
     <mergeCell ref="S2:T2"/>
   </mergeCells>
   <dataValidations count="23">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10;Value mu ..." sqref="A3:A4">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_Value mu ..." sqref="A3:A4">
       <formula1>1</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B4">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B3:B4">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Value" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C3:C4">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Value" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="C3:C4">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Standard error" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D3:D4">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Standard error" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="D3:D4">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." sqref="E3:E4"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Enter a unit or blank." sqref="E3:E4"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;observation&quot;, &quot;computational_observation&quot;, &quot;experimental_observation&quot;, &quot;theoretical_observation&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;observation&quot;, &quot;computational_observation&quot;, &quot;experimental_observation&quot;, &quot;theoretical_observation&quot; or blank." sqref="F3:F4">
       <formula1>"observation,computational_observation,experimental_observation,theoretical_observation"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Taxon" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Taxon" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G3:G4">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Taxon" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Taxon" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="G3:G4">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Variant" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Variant" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H3:H4">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Variant" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Variant" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="H3:H4">
       <formula1>255</formula1>
     </dataValidation>
     <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Temperature" error="Value must be a float or blank." promptTitle="Temperature" prompt="Enter a float or blank." sqref="I3:I4">
-      <formula1>-1e+100</formula1>
-      <formula2>1e+100</formula2>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Temperature units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;degree_Celsius&quot; or blank." promptTitle="Temperature units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;degree_Celsius&quot; or blank." sqref="J3:J4">
+      <formula1>-1E+100</formula1>
+      <formula2>1E+100</formula2>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Temperature units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;degree_Celsius&quot; or blank." promptTitle="Temperature units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;degree_Celsius&quot; or blank." sqref="J3:J4">
       <formula1>"degree_Celsius"</formula1>
     </dataValidation>
     <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="pH" error="Value must be a float or blank." promptTitle="pH" prompt="Enter a float or blank." sqref="K3:K4">
-      <formula1>-1e+100</formula1>
-      <formula2>1e+100</formula2>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="pH units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." promptTitle="pH units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." sqref="L3:L4">
+      <formula1>-1E+100</formula1>
+      <formula2>1E+100</formula2>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="pH units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;dimensionless&quot; or blank." promptTitle="pH units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;dimensionless&quot; or blank." sqref="L3:L4">
       <formula1>"dimensionless"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Growth media" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Growth media" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="M3:M4">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Growth media" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Growth media" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="M3:M4">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Condition" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Condition" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="N3:N4">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Condition" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Condition" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="N3:N4">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Experiment type" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Experiment type" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="O3:O4">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Experiment type" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Experiment type" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="O3:O4">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Experiment design" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Experiment design" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="P3:P4">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Experiment design" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Experiment design" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="P3:P4">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="Q3:Q4">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="Q3:Q4">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Version" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Version" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="R3:R4">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Version" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Version" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="R3:R4">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="S3:S4">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="S3:S4">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Version" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Version" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="T3:T4">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Version" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Version" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="T3:T4">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="U3:U4"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="V3:V4">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="U3:U4"/>
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="V3:V4">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="W3:W4"/>
@@ -3906,7 +3906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3916,128 +3916,128 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.01" customHeight="1">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="15.01" customHeight="1">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.01" customHeight="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:2" ht="15.01" customHeight="1">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.01" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:2" ht="15.01" customHeight="1">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" ht="15.01" customHeight="1">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" ht="15.01" customHeight="1">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.01" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.01" customHeight="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:2" ht="15.01" customHeight="1">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2" ht="15.01" customHeight="1">
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.01" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <dataValidations count="12">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10;Value mu ..." sqref="B2">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_Value mu ..." sqref="B2">
       <formula1>1</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B3">
       <formula1>255</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Version" error="Value must be a string." promptTitle="Version" prompt="Enter a string." sqref="B4"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="URL" error="Enter a valid URL&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 65535 characters." promptTitle="URL" prompt="Enter a valid URL&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 65535 characters." sqref="B5">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="URL" error="Enter a valid URL_x000a__x000a_Value must be a string._x000a__x000a_Value must be less than or equal to 65535 characters." promptTitle="URL" prompt="Enter a valid URL_x000a__x000a_Enter a string._x000a__x000a_Value must be less than or equal to 65535 characters." sqref="B5">
       <formula1>65535</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Branch" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Branch" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B6">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Branch" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Branch" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B6">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Revision" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Revision" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B7">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Revision" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Revision" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B7">
       <formula1>255</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="wc_lang version" error="Value must be a string." promptTitle="wc_lang version" prompt="Enter a string." sqref="B8"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Time units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;second&quot; or blank." promptTitle="Time units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;second&quot; or blank." sqref="B9">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Time units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;second&quot; or blank." promptTitle="Time units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;second&quot; or blank." sqref="B9">
       <formula1>"second"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="B10"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="B11">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="B10"/>
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="B11">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation type="date" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Created" error="Value must be a date and time." promptTitle="Created" prompt="Enter a date and time." sqref="B12">
@@ -4054,7 +4054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4062,15 +4062,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.01" customHeight="1">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4078,40 +4078,40 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="15.01" customHeight="1">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:F2"/>
   <dataValidations count="6">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10;Value mu ..." sqref="A2:A3">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_Value mu ..." sqref="A2:A3">
       <formula1>1</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B2:B3">
       <formula1>255</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Observations" error="Value must be a comma-separated list of values from &quot;Observations:A&quot; or blank." promptTitle="Observations" prompt="Enter a comma-separated list of values from &quot;Observations:A&quot; or blank." sqref="C2:C3"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="D2:D3"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="E2:E3">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="D2:D3"/>
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="E2:E3">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="F2:F3"/>
@@ -4121,7 +4121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4129,15 +4129,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.01" customHeight="1">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4153,7 +4153,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="15.01" customHeight="1">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -4161,10 +4161,10 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>294</v>
+        <v>271</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -4173,48 +4173,48 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" ht="15.01" customHeight="1">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -4224,32 +4224,32 @@
     <mergeCell ref="G2:H2"/>
   </mergeCells>
   <dataValidations count="14">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10;Value mu ..." sqref="A3:A4">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_Value mu ..." sqref="A3:A4">
       <formula1>1</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B4">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B3:B4">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Value" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C3:C4">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Value" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="C3:C4">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Standard error" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D3:D4">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard error" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Standard error" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="D3:D4">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Enter a unit or blank." sqref="E3:E4"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be a unit or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Enter a unit or blank." sqref="E3:E4"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;conclusion&quot;, &quot;approximation&quot;, &quot;assumption&quot;, &quot;computation&quot;, &quot;decision&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;conclusion&quot;, &quot;approximation&quot;, &quot;assumption&quot;, &quot;computation&quot;, &quot;decision&quot; or blank." sqref="F3:F4">
       <formula1>"conclusion,approximation,assumption,computation,decision"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="G3:G4">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="G3:G4">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Version" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Version" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H3:H4">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Version" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Version" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="H3:H4">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="I3:I4"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="J3:J4"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="K3:K4">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="I3:I4"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="J3:J4"/>
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="K3:K4">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="L3:L4"/>
@@ -4264,7 +4264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4272,15 +4272,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="18" width="15.7109375" customWidth="1"/>
-    <col min="19" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.01" customHeight="1">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4300,117 +4300,117 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="15.01" customHeight="1">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:R2"/>
   <dataValidations count="18">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10;Value mu ..." sqref="A2:A3">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_Value mu ..." sqref="A2:A3">
       <formula1>1</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B2:B3">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Title" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Title" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C2:C3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Title" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Title" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="C2:C3">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Author" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Author" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D2:D3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Author" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Author" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="D2:D3">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Editor" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Editor" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E2:E3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Editor" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Editor" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="E2:E3">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Year" error="Value must be an integer." promptTitle="Year" prompt="Enter an integer.&#10;&#10;Value must be positive." sqref="F2:F3">
+    <dataValidation type="whole" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Year" error="Value must be an integer." promptTitle="Year" prompt="Enter an integer._x000a__x000a_Value must be positive." sqref="F2:F3">
       <formula1>1</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;reference&quot;, &quot;article&quot;, &quot;book&quot;, &quot;preprint&quot;, &quot;proceedings&quot;, &quot;supplementary_material&quot;, &quot;thesis&quot;, &quot;website&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;reference&quot;, &quot;article&quot;, &quot;book&quot;, &quot;preprint&quot;, &quot;proceedings&quot;, &quot;supplementary_material&quot;, &quot;thesis&quot;, &quot;website&quot; or blank." sqref="G2:G3">
       <formula1>"reference,article,book,preprint,proceedings,supplementary_material,thesis,website"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Publication" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Publication" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H2:H3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Publication" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Publication" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="H2:H3">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Publisher" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Publisher" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="I2:I3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Publisher" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Publisher" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="I2:I3">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Series" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Series" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="J2:J3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Series" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Series" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="J2:J3">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Volume" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Volume" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="K2:K3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Volume" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Volume" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="K2:K3">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Number" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Number" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="L2:L3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Number" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Number" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="L2:L3">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Issue" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Issue" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="M2:M3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Issue" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Issue" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="M2:M3">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Edition" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Edition" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="N2:N3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Edition" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Edition" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="N2:N3">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Chapter" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Chapter" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="O2:O3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Chapter" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Chapter" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="O2:O3">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Pages" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Pages" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="P2:P3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Pages" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Pages" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="P2:P3">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="Q2:Q3"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="R2:R3">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="Q2:Q3"/>
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="R2:R3">
       <formula1>4294967295</formula1>
     </dataValidation>
   </dataValidations>
@@ -4419,7 +4419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4427,15 +4427,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.01" customHeight="1">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4449,84 +4449,84 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="15.01" customHeight="1">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:L2"/>
   <dataValidations count="12">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10;Value mu ..." sqref="A2:A3">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_Value mu ..." sqref="A2:A3">
       <formula1>1</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be between 1 and 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be between 1 and 255 characters." sqref="B2:B3">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be between 1 and 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be between 1 and 255 characters." sqref="B2:B3">
       <formula1>1</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Last name" error="Value must be a string.&#10;&#10;Value must be between 1 and 255 characters." promptTitle="Last name" prompt="Enter a string.&#10;&#10;Value must be between 1 and 255 characters." sqref="C2:C3">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Last name" error="Value must be a string._x000a__x000a_Value must be between 1 and 255 characters." promptTitle="Last name" prompt="Enter a string._x000a__x000a_Value must be between 1 and 255 characters." sqref="C2:C3">
       <formula1>1</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="First name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="First name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D2:D3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="First name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="First name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="D2:D3">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Middle name" error="Value must be a string.&#10;&#10;Value must be between 1 and 255 characters." promptTitle="Middle name" prompt="Enter a string.&#10;&#10;Value must be between 1 and 255 characters." sqref="E2:E3">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Middle name" error="Value must be a string._x000a__x000a_Value must be between 1 and 255 characters." promptTitle="Middle name" prompt="Enter a string._x000a__x000a_Value must be between 1 and 255 characters." sqref="E2:E3">
       <formula1>1</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Title" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Title" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="F2:F3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Title" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Title" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="F2:F3">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Organization" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Organization" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="G2:G3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Organization" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Organization" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="G2:G3">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Email" error="Enter a valid email address&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Email" prompt="Enter a valid email address&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H2:H3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Email" error="Enter a valid email address_x000a__x000a_Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Email" prompt="Enter a valid email address_x000a__x000a_Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="H2:H3">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Website" error="Enter a valid URL&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 65535 characters." promptTitle="Website" prompt="Enter a valid URL&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 65535 characters." sqref="I2:I3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Website" error="Enter a valid URL_x000a__x000a_Value must be a string._x000a__x000a_Value must be less than or equal to 65535 characters." promptTitle="Website" prompt="Enter a valid URL_x000a__x000a_Enter a string._x000a__x000a_Value must be less than or equal to 65535 characters." sqref="I2:I3">
       <formula1>65535</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Address" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Address" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="J2:J3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Address" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Address" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="J2:J3">
       <formula1>4294967295</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="K2:K3"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="L2:L3">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="K2:K3"/>
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="L2:L3">
       <formula1>4294967295</formula1>
     </dataValidation>
   </dataValidations>
@@ -4535,7 +4535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4543,15 +4543,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="17" width="15.7109375" customWidth="1"/>
-    <col min="18" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.01" customHeight="1">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4570,99 +4570,96 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="15.01" customHeight="1">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:Q2"/>
-  <dataValidations count="17">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10;Value mu ..." sqref="A2:A3">
+  <dataValidations count="16">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_Value mu ..." sqref="A2:A3">
       <formula1>1</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be between 1 and 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be between 1 and 255 characters." sqref="B2:B3">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be between 1 and 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be between 1 and 255 characters." sqref="B2:B3">
       <formula1>1</formula1>
       <formula2>255</formula2>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;change&quot;, &quot;copy&quot;, &quot;deletion_change_provenance&quot;, &quot;insertion&quot;, &quot;merge&quot;, &quot;move&quot;, &quot;revert&quot;, &quot;update&quot; or blank." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;change&quot;, &quot;copy&quot;, &quot;deletion_change_provenance&quot;, &quot;insertion&quot;, &quot;merge&quot;, &quot;move&quot;, &quot;revert&quot;, &quot;update&quot; or blank." sqref="C2:C3">
       <formula1>"change,copy,deletion_change_provenance,insertion,merge,move,revert,update"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Target" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Target" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="D2:D3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Target" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Target" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="D2:D3">
       <formula1>4294967295</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Target submodel" error="Value must be a value from &quot;!!Submodels:A&quot; or blank." promptTitle="Target submodel" prompt="Select a value from &quot;!!Submodels:A&quot; or blank." sqref="E2:E3">
-      <formula1>'!!Submodels'!$A$3:$A$1048576</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Target type" error="Value must be a comma-separated list of WC ontology terms &quot;target_provenance&quot;, &quot;data_target_provenance&quot;, &quot;encoding_target_provenance&quot;, &quot;metadata_target_provenance&quot;, &quot;model_target_provenance&quot;, &quot;model_dynamics_target_provenance&quot;, &quot;model_initial_conditio ..." promptTitle="Target type" prompt="Enter a comma-separated list of WC ontology terms &quot;target_provenance&quot;, &quot;data_target_provenance&quot;, &quot;encoding_target_provenance&quot;, &quot;metadata_target_provenance&quot;, &quot;model_target_provenance&quot;, &quot;model_dynamics_target_provenance&quot;, &quot;model_initial_conditions_targe ..." sqref="F2:F3">
       <formula1>"target_provenance,data_target_provenance,encoding_target_provenance,metadata_target_provenance,model_target_provenance,model_dynamics_target_provenance,model_initial_conditions_target_provenance"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reason" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Reason" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="G2:G3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reason" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Reason" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="G2:G3">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reason type" error="Value must be a comma-separated list of WC ontology terms &quot;reason_provenance&quot;, &quot;add_metadata_reason_provenance&quot;, &quot;implementation_error_reason_provenance&quot;, &quot;incorrect_interpretation_reason_provenance&quot;, &quot;migrate_version_reason_provenance&quot;, &quot;new_goal_rea ..." promptTitle="Reason type" prompt="Enter a comma-separated list of WC ontology terms &quot;reason_provenance&quot;, &quot;add_metadata_reason_provenance&quot;, &quot;implementation_error_reason_provenance&quot;, &quot;incorrect_interpretation_reason_provenance&quot;, &quot;migrate_version_reason_provenance&quot;, &quot;new_goal_reason_prov ..." sqref="H2:H3">
       <formula1>"reason_provenance,add_metadata_reason_provenance,implementation_error_reason_provenance,incorrect_interpretation_reason_provenance,migrate_version_reason_provenance,new_goal_reason_provenance,new_knowledge_reason_provenance"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Intention" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Intention" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="I2:I3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Intention" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Intention" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="I2:I3">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Intention type" error="Value must be a comma-separated list of WC ontology terms &quot;intention_provenance&quot;, &quot;correct_intention_provenance&quot;, &quot;elaborate_intention_provenance&quot;, &quot;expand_intention_provenance&quot;, &quot;simplify_intention_provenance&quot; or blank." promptTitle="Intention type" prompt="Enter a comma-separated list of WC ontology terms &quot;intention_provenance&quot;, &quot;correct_intention_provenance&quot;, &quot;elaborate_intention_provenance&quot;, &quot;expand_intention_provenance&quot;, &quot;simplify_intention_provenance&quot; or blank." sqref="J2:J3">
       <formula1>"intention_provenance,correct_intention_provenance,elaborate_intention_provenance,expand_intention_provenance,simplify_intention_provenance"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="K2:K3"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="L2:L3"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="K2:K3"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="L2:L3"/>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="M2:M3"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="N2:N3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="N2:N3">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="O2:O3"/>
@@ -4673,11 +4670,23 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Target submodel" error="Value must be a value from &quot;!!Submodels:A&quot; or blank." promptTitle="Target submodel" prompt="Select a value from &quot;!!Submodels:A&quot; or blank.">
+          <x14:formula1>
+            <xm:f>'!!Submodels'!$A$3:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4687,59 +4696,59 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.01" customHeight="1">
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.01" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.01" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.01" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.01" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.01" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.01" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <dataValidations count="6">
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be unique." sqref="A2:B2"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:B3">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string._x000a__x000a_Value must be unique." promptTitle="Id" prompt="Enter a string._x000a__x000a_Value must be unique." sqref="A2:B2"/>
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="A3:B3">
       <formula1>255</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Rank" error="Value must be one of &quot;domain&quot;, &quot;kingdom&quot;, &quot;phylum&quot;, &quot;classis&quot;, &quot;order&quot;, &quot;family&quot;, &quot;tribe&quot;, &quot;genus&quot;, &quot;species&quot;, &quot;variety&quot;." promptTitle="Rank" prompt="Select one of &quot;domain&quot;, &quot;kingdom&quot;, &quot;phylum&quot;, &quot;classis&quot;, &quot;order&quot;, &quot;family&quot;, &quot;tribe&quot;, &quot;genus&quot;, &quot;species&quot;, &quot;variety&quot;." sqref="A4:B4">
       <formula1>"domain,kingdom,phylum,classis,order,family,tribe,genus,species,variety"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="A5:B5"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="A6:B6">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="A5:B5"/>
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="A6:B6">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="A7:B7"/>
@@ -4749,7 +4758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4759,68 +4768,68 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.01" customHeight="1">
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.01" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.01" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.01" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.01" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.01" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.01" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15.01" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <dataValidations count="7">
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be unique." sqref="A2:B2"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:B3">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string._x000a__x000a_Value must be unique." promptTitle="Id" prompt="Enter a string._x000a__x000a_Value must be unique." sqref="A2:B2"/>
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="A3:B3">
       <formula1>255</formula1>
     </dataValidation>
     <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Temperature" error="Value must be a float or blank." promptTitle="Temperature" prompt="Enter a float or blank." sqref="A4:B4">
-      <formula1>-1e+100</formula1>
-      <formula2>1e+100</formula2>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Temperature units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;degree_Celsius&quot; or blank." promptTitle="Temperature units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;degree_Celsius&quot; or blank." sqref="A5:B5">
+      <formula1>-1E+100</formula1>
+      <formula2>1E+100</formula2>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Temperature units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;degree_Celsius&quot; or blank." promptTitle="Temperature units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;degree_Celsius&quot; or blank." sqref="A5:B5">
       <formula1>"degree_Celsius"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="A6:B6"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="A7:B7">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="A6:B6"/>
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="A7:B7">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="A8:B8"/>
@@ -4830,7 +4839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4838,15 +4847,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.01" customHeight="1">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4856,39 +4865,39 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="15.01" customHeight="1">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.01" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -4900,20 +4909,20 @@
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:H3"/>
   <dataValidations count="8">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10;Value mu ..." sqref="A3">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_Value mu ..." sqref="A3">
       <formula1>1</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B3">
       <formula1>255</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Framework" error="Value must be a comma-separated list of WC ontology terms &quot;modeling_framework&quot;, &quot;deterministic_simulation_algorithm&quot;, &quot;dynamic_flux_balance_analysis&quot;, &quot;next_reaction_method&quot;, &quot;ordinary_differential_equations&quot;, &quot;stochastic_simulation_algorithm&quot;." promptTitle="Framework" prompt="Enter a comma-separated list of WC ontology terms &quot;modeling_framework&quot;, &quot;deterministic_simulation_algorithm&quot;, &quot;dynamic_flux_balance_analysis&quot;, &quot;next_reaction_method&quot;, &quot;ordinary_differential_equations&quot;, &quot;stochastic_simulation_algorithm&quot;." sqref="C3">
       <formula1>"modeling_framework,deterministic_simulation_algorithm,dynamic_flux_balance_analysis,next_reaction_method,ordinary_differential_equations,stochastic_simulation_algorithm"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="D3"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="E3"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="D3"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="E3"/>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="F3"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="G3">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="G3">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="H3"/>
@@ -4923,7 +4932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4931,15 +4940,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="21" width="15.7109375" customWidth="1"/>
-    <col min="22" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.01" customHeight="1">
+    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4962,7 +4971,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" ht="15.01" customHeight="1">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -4971,29 +4980,29 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>83</v>
+        <v>60</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
@@ -5001,91 +5010,91 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="1:21" ht="15.01" customHeight="1">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="S3" s="2" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="U3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.01" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -5094,10 +5103,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -5116,12 +5125,12 @@
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="M2:P2"/>
   </mergeCells>
-  <dataValidations count="21">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10;Value mu ..." sqref="A4">
+  <dataValidations count="20">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_Value mu ..." sqref="A4">
       <formula1>1</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B4">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B4">
       <formula1>255</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Biological type" error="Value must be a comma-separated list of WC ontology terms &quot;biological_compartment&quot;, &quot;cellular_compartment&quot;, &quot;extracellular_compartment&quot; or blank." promptTitle="Biological type" prompt="Enter a comma-separated list of WC ontology terms &quot;biological_compartment&quot;, &quot;cellular_compartment&quot;, &quot;extracellular_compartment&quot; or blank." sqref="C4">
@@ -5134,49 +5143,58 @@
       <formula1>"geometric_compartment,3D_compartment"</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Parent compartment" error="Value must be a value from &quot;!!Compartments:A&quot; or blank." promptTitle="Parent compartment" prompt="Select a value from &quot;!!Compartments:A&quot; or blank." sqref="F4">
-      <formula1>'!!Compartments'!$A$4:$A$1048576</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mass units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;gram&quot; or blank." promptTitle="Mass units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;gram&quot; or blank." sqref="G4">
+      <formula1>$A$4:$A$1048576</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mass units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;gram&quot; or blank." promptTitle="Mass units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;gram&quot; or blank." sqref="G4">
       <formula1>"gram"</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Distribution" error="Value must be a comma-separated list of WC ontology terms &quot;random_distribution&quot;, &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;,  ..." promptTitle="Distribution" prompt="Enter a comma-separated list of WC ontology terms &quot;random_distribution&quot;, &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_di ..." sqref="H4"/>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean" error="Value must be a float or blank." promptTitle="Mean" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="I4">
-      <formula1>-1e-100</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard deviation" error="Value must be a float or blank." promptTitle="Standard deviation" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="J4">
-      <formula1>-1e-100</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;liter&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;liter&quot; or blank." sqref="K4">
+    <dataValidation type="decimal" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean" error="Value must be a float or blank." promptTitle="Mean" prompt="Enter a float or blank._x000a__x000a_Value must be greater than or equal to 0.0." sqref="I4">
+      <formula1>-1E-100</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard deviation" error="Value must be a float or blank." promptTitle="Standard deviation" prompt="Enter a float or blank._x000a__x000a_Value must be greater than or equal to 0.0." sqref="J4">
+      <formula1>-1E-100</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;liter&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;liter&quot; or blank." sqref="K4">
       <formula1>"liter"</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Initial density" error="Value must be a value from &quot;!!Parameters:A&quot; or blank." promptTitle="Initial density" prompt="Select a value from &quot;!!Parameters:A&quot; or blank." sqref="L4">
-      <formula1>'!!Parameters'!$A$3:$A$1048576</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Distribution" error="Value must be a comma-separated list of WC ontology terms &quot;random_distribution&quot;, &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;,  ..." promptTitle="Distribution" prompt="Enter a comma-separated list of WC ontology terms &quot;random_distribution&quot;, &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_di ..." sqref="M4"/>
     <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean" error="Value must be a float or blank." promptTitle="Mean" prompt="Enter a float or blank." sqref="N4">
-      <formula1>-1e+100</formula1>
-      <formula2>1e+100</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard deviation" error="Value must be a float or blank." promptTitle="Standard deviation" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="O4">
-      <formula1>-1e-100</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;dimensionless&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;dimensionless&quot; or blank." sqref="P4">
+      <formula1>-1E+100</formula1>
+      <formula2>1E+100</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard deviation" error="Value must be a float or blank." promptTitle="Standard deviation" prompt="Enter a float or blank._x000a__x000a_Value must be greater than or equal to 0.0." sqref="O4">
+      <formula1>-1E-100</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;dimensionless&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;dimensionless&quot; or blank." sqref="P4">
       <formula1>"dimensionless"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="Q4"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="R4"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="Q4"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="R4"/>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="S4"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="T4">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="T4">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="U4"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Initial density" error="Value must be a value from &quot;!!Parameters:A&quot; or blank." promptTitle="Initial density" prompt="Select a value from &quot;!!Parameters:A&quot; or blank.">
+          <x14:formula1>
+            <xm:f>'!!Parameters'!$A$3:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>L4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5184,15 +5202,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.01" customHeight="1">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5208,26 +5226,26 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="15.01" customHeight="1">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>103</v>
+        <v>80</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -5236,69 +5254,69 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" ht="15.01" customHeight="1">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.01" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G4" s="3">
-        <v>46.069</v>
+        <v>46.069000000000003</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -5306,25 +5324,25 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="15.01" customHeight="1">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G5" s="3">
-        <v>46.069</v>
+        <v>46.069000000000003</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -5332,25 +5350,25 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" ht="15.01" customHeight="1">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G6" s="3">
-        <v>46.069</v>
+        <v>46.069000000000003</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -5358,25 +5376,25 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="15.01" customHeight="1">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G7" s="3">
-        <v>46.069</v>
+        <v>46.069000000000003</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -5384,25 +5402,25 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="15.01" customHeight="1">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G8" s="3">
-        <v>46.069</v>
+        <v>46.069000000000003</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -5410,25 +5428,25 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" ht="15.01" customHeight="1">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G9" s="3">
-        <v>46.069</v>
+        <v>46.069000000000003</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -5436,25 +5454,25 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" ht="15.01" customHeight="1">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G10" s="3">
-        <v>46.069</v>
+        <v>46.069000000000003</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -5462,25 +5480,25 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" ht="15.01" customHeight="1">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G11" s="3">
-        <v>46.069</v>
+        <v>46.069000000000003</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -5488,25 +5506,25 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" ht="15.01" customHeight="1">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G12" s="3">
-        <v>46.069</v>
+        <v>46.069000000000003</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -5514,25 +5532,25 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" ht="15.01" customHeight="1">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G13" s="3">
-        <v>46.069</v>
+        <v>46.069000000000003</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -5540,25 +5558,25 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" ht="15.01" customHeight="1">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G14" s="3">
-        <v>46.069</v>
+        <v>46.069000000000003</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -5566,25 +5584,25 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="15.01" customHeight="1">
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G15" s="3">
-        <v>46.069</v>
+        <v>46.069000000000003</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -5592,25 +5610,25 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" ht="15.01" customHeight="1">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G16" s="3">
-        <v>46.069</v>
+        <v>46.069000000000003</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -5618,25 +5636,25 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" ht="15.01" customHeight="1">
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G17" s="3">
-        <v>46.069</v>
+        <v>46.069000000000003</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -5644,25 +5662,25 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" ht="15.01" customHeight="1">
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G18" s="3">
-        <v>46.069</v>
+        <v>46.069000000000003</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -5670,25 +5688,25 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" ht="15.01" customHeight="1">
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G19" s="3">
-        <v>46.069</v>
+        <v>46.069000000000003</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -5696,25 +5714,25 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="15.01" customHeight="1">
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G20" s="3">
-        <v>46.069</v>
+        <v>46.069000000000003</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -5722,25 +5740,25 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" ht="15.01" customHeight="1">
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G21" s="3">
-        <v>46.069</v>
+        <v>46.069000000000003</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -5748,25 +5766,25 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" ht="15.01" customHeight="1">
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G22" s="3">
-        <v>46.069</v>
+        <v>46.069000000000003</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -5774,25 +5792,25 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" ht="15.01" customHeight="1">
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G23" s="3">
-        <v>46.069</v>
+        <v>46.069000000000003</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -5800,25 +5818,25 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" ht="15.01" customHeight="1">
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G24" s="3">
-        <v>46.069</v>
+        <v>46.069000000000003</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -5826,25 +5844,25 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" ht="15.01" customHeight="1">
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G25" s="3">
-        <v>46.069</v>
+        <v>46.069000000000003</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -5852,25 +5870,25 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="15.01" customHeight="1">
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G26" s="3">
-        <v>46.069</v>
+        <v>46.069000000000003</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -5885,14 +5903,14 @@
     <mergeCell ref="C2:H2"/>
   </mergeCells>
   <dataValidations count="14">
-    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Value must be a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10; ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number&#10;&#10;Enter a string.&#10;&#10;Value must be between 1 and 90 characters.&#10;&#10;Value mu ..." sqref="A4:A26">
+    <dataValidation type="textLength" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Value must be a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_ ..." promptTitle="Id" prompt="Enter a unique string identifier that (a) is composed of letters, numbers and underscores; (b) is 90 characters or less; and (c) is not a decimal, hexadecimal, or scientific number_x000a__x000a_Enter a string._x000a__x000a_Value must be between 1 and 90 characters._x000a__x000a_Value mu ..." sqref="A4:A26">
       <formula1>1</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B4:B26">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B4:B26">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Value" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="C4:C26">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Value" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="C4:C26">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Format" error="Value must be one of &quot;smiles&quot;, &quot;bpforms&quot;, &quot;bcforms&quot; or blank." promptTitle="Format" prompt="Select one of &quot;smiles&quot;, &quot;bpforms&quot;, &quot;bcforms&quot; or blank." sqref="D4:D26">
@@ -5901,19 +5919,19 @@
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Alphabet" error="Value must be one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." promptTitle="Alphabet" prompt="Select one of &quot;dna&quot;, &quot;rna&quot;, &quot;protein&quot;, &quot;canonical_dna&quot;, &quot;canonical_rna&quot;, &quot;canonical_protein&quot; or blank." sqref="E4:E26">
       <formula1>"dna,rna,protein,canonical_dna,canonical_rna,canonical_protein"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Empirical formula" error="A chemical formula (e.g. 'H2O', 'CO2', or 'NaCl')&#10;&#10;Value must be an chemical formula (e.g. &quot;H2O&quot;)." promptTitle="Empirical formula" prompt="A chemical formula (e.g. 'H2O', 'CO2', or 'NaCl')&#10;&#10;Enter an chemical formula (e.g. &quot;H2O&quot;)." sqref="F4:F26"/>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Molecular weight" error="Value must be a float or blank." promptTitle="Molecular weight" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="G4:G26">
-      <formula1>-1e-100</formula1>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Empirical formula" error="A chemical formula (e.g. 'H2O', 'CO2', or 'NaCl')_x000a__x000a_Value must be an chemical formula (e.g. &quot;H2O&quot;)." promptTitle="Empirical formula" prompt="A chemical formula (e.g. 'H2O', 'CO2', or 'NaCl')_x000a__x000a_Enter an chemical formula (e.g. &quot;H2O&quot;)." sqref="F4:F26"/>
+    <dataValidation type="decimal" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Molecular weight" error="Value must be a float or blank." promptTitle="Molecular weight" prompt="Enter a float or blank._x000a__x000a_Value must be greater than or equal to 0.0." sqref="G4:G26">
+      <formula1>-1E-100</formula1>
     </dataValidation>
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Charge" error="Value must be an integer." promptTitle="Charge" prompt="Enter an integer." sqref="H4:H26">
       <formula1>-32768</formula1>
       <formula2>32767</formula2>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Value must be a comma-separated list of WC ontology terms &quot;species_type&quot;, &quot;DNA&quot;, &quot;RNA&quot;, &quot;complex&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot;, &quot;asRNA&quot;, &quot;intergenic&quot;, &quot;mRNA&quot;, &quot;mixed&quot;, &quot;ncRNA&quot;, &quot;rRNA&quot;, &quot;sRNA&quot;, &quot;tRNA&quot;, &quot;TRNASynthClassIIComplex&quot;, &quot;fattyAcy ..." promptTitle="Type" prompt="Enter a comma-separated list of WC ontology terms &quot;species_type&quot;, &quot;DNA&quot;, &quot;RNA&quot;, &quot;complex&quot;, &quot;metabolite&quot;, &quot;protein&quot;, &quot;pseudo_species&quot;, &quot;asRNA&quot;, &quot;intergenic&quot;, &quot;mRNA&quot;, &quot;mixed&quot;, &quot;ncRNA&quot;, &quot;rRNA&quot;, &quot;sRNA&quot;, &quot;tRNA&quot;, &quot;TRNASynthClassIIComplex&quot;, &quot;fattyAcylAcpComp ..." sqref="I4:I26"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="J4:J26"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="K4:K26"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="J4:J26"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="K4:K26"/>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="L4:L26"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="M4:M26">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="M4:M26">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="N4:N26"/>
@@ -5923,7 +5941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5931,15 +5949,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.01" customHeight="1">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5951,51 +5969,51 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="15.01" customHeight="1">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.01" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -6003,19 +6021,19 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.01" customHeight="1">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -6023,19 +6041,19 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15.01" customHeight="1">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -6043,19 +6061,19 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="15.01" customHeight="1">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -6063,19 +6081,19 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="15.01" customHeight="1">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -6083,19 +6101,19 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="15.01" customHeight="1">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -6103,19 +6121,19 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="15.01" customHeight="1">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -6123,19 +6141,19 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="15.01" customHeight="1">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -6143,19 +6161,19 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="15.01" customHeight="1">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -6163,19 +6181,19 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="15.01" customHeight="1">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -6183,19 +6201,19 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="15.01" customHeight="1">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -6203,19 +6221,19 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" ht="15.01" customHeight="1">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -6223,19 +6241,19 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="15.01" customHeight="1">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -6243,19 +6261,19 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" ht="15.01" customHeight="1">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -6263,19 +6281,19 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="15.01" customHeight="1">
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -6283,19 +6301,19 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="15.01" customHeight="1">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -6303,19 +6321,19 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="15.01" customHeight="1">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -6323,19 +6341,19 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="15.01" customHeight="1">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -6343,19 +6361,19 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="15.01" customHeight="1">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -6363,19 +6381,19 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" ht="15.01" customHeight="1">
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -6383,19 +6401,19 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="15.01" customHeight="1">
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -6403,19 +6421,19 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="15.01" customHeight="1">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -6423,19 +6441,19 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="15.01" customHeight="1">
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -6446,36 +6464,48 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:J25"/>
-  <dataValidations count="10">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A3:A25">
+  <dataValidations count="8">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." promptTitle="Id" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." sqref="A3:A25">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B25">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B3:B25">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Species type" error="Value must be a value from &quot;!!Species types:A&quot;." promptTitle="Species type" prompt="Select a value from &quot;!!Species types:A&quot;." sqref="C3:C25">
-      <formula1>'!!Species types'!$A$4:$A$1048576</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Compartment" error="Value must be a value from &quot;!!Compartments:A&quot;." promptTitle="Compartment" prompt="Select a value from &quot;!!Compartments:A&quot;." sqref="D3:D25">
-      <formula1>'!!Compartments'!$A$4:$A$1048576</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot; or blank." sqref="E3:E25">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;molecule&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;molecule&quot; or blank." sqref="E3:E25">
       <formula1>"molecule"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="F3:F25"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="G3:G25"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="F3:F25"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="G3:G25"/>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="H3:H25"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="I3:I25">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="I3:I25">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="J3:J25"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Species type" error="Value must be a value from &quot;!!Species types:A&quot;." promptTitle="Species type" prompt="Select a value from &quot;!!Species types:A&quot;.">
+          <x14:formula1>
+            <xm:f>'!!Species types'!$A$4:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C25</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Compartment" error="Value must be a value from &quot;!!Compartments:A&quot;." promptTitle="Compartment" prompt="Select a value from &quot;!!Compartments:A&quot;.">
+          <x14:formula1>
+            <xm:f>'!!Compartments'!$A$4:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D25</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6483,15 +6513,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.01" customHeight="1">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6505,54 +6535,54 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="15.01" customHeight="1">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.01" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E3" s="3">
         <v>1000</v>
@@ -6561,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -6569,16 +6599,16 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15.01" customHeight="1">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E4" s="3">
         <v>1000</v>
@@ -6587,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -6595,16 +6625,16 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.01" customHeight="1">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E5" s="3">
         <v>1000</v>
@@ -6613,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -6621,16 +6651,16 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="15.01" customHeight="1">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E6" s="3">
         <v>1000</v>
@@ -6639,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -6647,16 +6677,16 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15.01" customHeight="1">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E7" s="3">
         <v>1000</v>
@@ -6665,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -6673,16 +6703,16 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15.01" customHeight="1">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E8" s="3">
         <v>1000</v>
@@ -6691,7 +6721,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -6699,16 +6729,16 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="15.01" customHeight="1">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E9" s="3">
         <v>1000</v>
@@ -6717,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -6725,16 +6755,16 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15.01" customHeight="1">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E10" s="3">
         <v>1000</v>
@@ -6743,7 +6773,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -6751,16 +6781,16 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="15.01" customHeight="1">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E11" s="3">
         <v>1000</v>
@@ -6769,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -6777,16 +6807,16 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15.01" customHeight="1">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E12" s="3">
         <v>1000</v>
@@ -6795,7 +6825,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -6803,16 +6833,16 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="15.01" customHeight="1">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E13" s="3">
         <v>1000</v>
@@ -6821,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -6829,16 +6859,16 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15.01" customHeight="1">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E14" s="3">
         <v>1000</v>
@@ -6847,7 +6877,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -6855,16 +6885,16 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15.01" customHeight="1">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E15" s="3">
         <v>1000</v>
@@ -6873,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -6881,16 +6911,16 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15.01" customHeight="1">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E16" s="3">
         <v>1000</v>
@@ -6899,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -6907,16 +6937,16 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" ht="15.01" customHeight="1">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E17" s="3">
         <v>1000</v>
@@ -6925,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -6933,16 +6963,16 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" ht="15.01" customHeight="1">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E18" s="3">
         <v>1000</v>
@@ -6951,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -6959,16 +6989,16 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="15.01" customHeight="1">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E19" s="3">
         <v>1000</v>
@@ -6977,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -6985,16 +7015,16 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" ht="15.01" customHeight="1">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E20" s="3">
         <v>1000</v>
@@ -7003,7 +7033,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -7011,16 +7041,16 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" ht="15.01" customHeight="1">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E21" s="3">
         <v>1000</v>
@@ -7029,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -7037,16 +7067,16 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="15.01" customHeight="1">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E22" s="3">
         <v>1000</v>
@@ -7055,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -7063,16 +7093,16 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="15.01" customHeight="1">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E23" s="3">
         <v>1000</v>
@@ -7081,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -7089,16 +7119,16 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="15.01" customHeight="1">
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E24" s="3">
         <v>1000</v>
@@ -7107,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -7115,16 +7145,16 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="15.01" customHeight="1">
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E25" s="3">
         <v>1000</v>
@@ -7133,7 +7163,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -7144,34 +7174,43 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:L25"/>
-  <dataValidations count="12">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A3:A25">
+  <dataValidations count="11">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." promptTitle="Id" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters._x000a__x000a_Value must be unique." sqref="A3:A25">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B25">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string._x000a__x000a_Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 255 characters." sqref="B3:B25">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Species" error="Value must be a value from &quot;!!Species:A&quot;." promptTitle="Species" prompt="Select a value from &quot;!!Species:A&quot;." sqref="C3:C25">
-      <formula1>'!!Species'!$A$3:$A$1048576</formula1>
-    </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Distribution" error="Value must be a comma-separated list of WC ontology terms &quot;random_distribution&quot;, &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;,  ..." promptTitle="Distribution" prompt="Enter a comma-separated list of WC ontology terms &quot;random_distribution&quot;, &quot;Dirichlet_distribution&quot;, &quot;Gumbel_distribution&quot;, &quot;Laplace_distribution&quot;, &quot;Pareto_distribution&quot;, &quot;Poisson_distribution&quot;, &quot;Rayleigh_distribution&quot;, &quot;Vonmises_distribution&quot;, &quot;Wald_di ..." sqref="D3:D25"/>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean" error="Value must be a float or blank." promptTitle="Mean" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="E3:E25">
-      <formula1>-1e-100</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard deviation" error="Value must be a float or blank." promptTitle="Standard deviation" prompt="Enter a float or blank.&#10;&#10;Value must be greater than or equal to 0.0." sqref="F3:F25">
-      <formula1>-1e-100</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Value must be one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')&#10;&#10;Select one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." sqref="G3:G25">
+    <dataValidation type="decimal" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean" error="Value must be a float or blank." promptTitle="Mean" prompt="Enter a float or blank._x000a__x000a_Value must be greater than or equal to 0.0." sqref="E3:E25">
+      <formula1>-1E-100</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Standard deviation" error="Value must be a float or blank." promptTitle="Standard deviation" prompt="Enter a float or blank._x000a__x000a_Value must be greater than or equal to 0.0." sqref="F3:F25">
+      <formula1>-1E-100</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Units" error="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Value must be one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." promptTitle="Units" prompt="Units (e.g. 'second', 'meter', or 'gram')_x000a__x000a_Select one unit of &quot;molecule&quot;, &quot;molar&quot;, &quot;millimolar&quot;, &quot;micromolar&quot;, &quot;nanomolar&quot;, &quot;picomolar&quot;, &quot;femtomolar&quot;, &quot;attomolar&quot; or blank." sqref="G3:G25">
       <formula1>"molecule,molar,millimolar,micromolar,nanomolar,picomolar,femtomolar,attomolar"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces.&#10;&#10;Examples:&#10;* doi: 10.1016/j.tcb.2015.09.004&#10;* chebi: CHEBI:15377, kegg.compound: C00001" sqref="H3:H25"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;.&#10;&#10;Examples:&#10;* Obs1(+, s=50, q=100); Obs2(-)&#10;* Obs3(~, s=90)&#10;* Obs4(+, q=30)" sqref="I3:I25"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Value must be a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" promptTitle="Identifiers" prompt="Enter a comma-separated list of identifiers in external namespaces._x000a__x000a_Examples:_x000a_* doi: 10.1016/j.tcb.2015.09.004_x000a_* chebi: CHEBI:15377, kegg.compound: C00001" sqref="H3:H25"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Evidence" error="Value must be a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" promptTitle="Evidence" prompt="Enter a list of observations from &quot;Observations:A&quot;._x000a__x000a_Examples:_x000a_* Obs1(+, s=50, q=100); Obs2(-)_x000a_* Obs3(~, s=90)_x000a_* Obs4(+, q=30)" sqref="I3:I25"/>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Conclusions" error="Value must be a comma-separated list of values from &quot;Conclusions:A&quot; or blank." promptTitle="Conclusions" prompt="Enter a comma-separated list of values from &quot;Conclusions:A&quot; or blank." sqref="J3:J25"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="K3:K25">
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comments" error="Value must be a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." promptTitle="Comments" prompt="Enter a string._x000a__x000a_Value must be less than or equal to 4294967295 characters." sqref="K3:K25">
       <formula1>4294967295</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="References" error="Value must be a comma-separated list of values from &quot;References:A&quot; or blank." promptTitle="References" prompt="Enter a comma-separated list of values from &quot;References:A&quot; or blank." sqref="L3:L25"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Species" error="Value must be a value from &quot;!!Species:A&quot;." promptTitle="Species" prompt="Select a value from &quot;!!Species:A&quot;.">
+          <x14:formula1>
+            <xm:f>'!!Species'!$A$3:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C25</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>